--- a/public/aspect.xlsx
+++ b/public/aspect.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetData>
     <row r="1" spans="1:5" customHeight="0">
       <c r="A1" s="1" t="inlineStr">
@@ -117,47 +117,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ketepatan</t>
+          <t>Karyawan</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Staff QC</t>
+          <t>Administrasi QA</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-12-03 04:36:01</t>
+          <t>2025-12-05 03:27:14</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2025-12-03 04:36:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customHeight="0">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Kerapian</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Administrasi QA</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-03 04:25:14</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-03 04:25:14</t>
+          <t>2025-12-05 03:27:14</t>
         </is>
       </c>
     </row>
